--- a/bio_diversity/static/data_templates/coldbrook-tagging.xlsx
+++ b/bio_diversity/static/data_templates/coldbrook-tagging.xlsx
@@ -795,10 +795,10 @@
   <dimension ref="A1:AQ317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,9 +922,7 @@
       </c>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
+      <c r="A2" s="9"/>
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -969,9 +967,7 @@
       <c r="AQ2"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
+      <c r="A3" s="9"/>
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -1016,9 +1012,7 @@
       <c r="AQ3"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
+      <c r="A4" s="9"/>
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -1063,9 +1057,7 @@
       <c r="AQ4"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -1110,9 +1102,7 @@
       <c r="AQ5"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1157,9 +1147,7 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -1204,9 +1192,7 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
+      <c r="A8" s="9"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -1251,9 +1237,7 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
+      <c r="A9" s="9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -1298,9 +1282,7 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
+      <c r="A10" s="9"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -1345,9 +1327,7 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
+      <c r="A11" s="9"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -1392,9 +1372,7 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
+      <c r="A12" s="9"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -1439,9 +1417,7 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -1486,9 +1462,7 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1533,9 +1507,7 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1580,9 +1552,7 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1627,9 +1597,7 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1674,9 +1642,7 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1721,9 +1687,7 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
+      <c r="A19" s="9"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -1768,9 +1732,7 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
+      <c r="A20" s="9"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -1815,9 +1777,7 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>20</v>
-      </c>
+      <c r="A21" s="9"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1862,9 +1822,7 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>21</v>
-      </c>
+      <c r="A22" s="9"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1909,9 +1867,7 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>22</v>
-      </c>
+      <c r="A23" s="9"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1956,9 +1912,7 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>23</v>
-      </c>
+      <c r="A24" s="9"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2003,9 +1957,7 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>24</v>
-      </c>
+      <c r="A25" s="9"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -2050,9 +2002,7 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>25</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2097,9 +2047,7 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2144,9 +2092,7 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>27</v>
-      </c>
+      <c r="A28" s="9"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -2191,9 +2137,7 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -2238,9 +2182,7 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>29</v>
-      </c>
+      <c r="A30" s="9"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2285,9 +2227,7 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>30</v>
-      </c>
+      <c r="A31" s="9"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -2332,9 +2272,7 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
-        <v>31</v>
-      </c>
+      <c r="A32" s="9"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2379,9 +2317,7 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>32</v>
-      </c>
+      <c r="A33" s="9"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2426,9 +2362,7 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>33</v>
-      </c>
+      <c r="A34" s="9"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -2473,9 +2407,7 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>34</v>
-      </c>
+      <c r="A35" s="9"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -2520,9 +2452,7 @@
       <c r="AQ35"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
+      <c r="A36" s="9"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -2567,9 +2497,7 @@
       <c r="AQ36"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>36</v>
-      </c>
+      <c r="A37" s="9"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -2614,9 +2542,7 @@
       <c r="AQ37"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>37</v>
-      </c>
+      <c r="A38" s="9"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -2661,9 +2587,7 @@
       <c r="AQ38"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>38</v>
-      </c>
+      <c r="A39" s="9"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -2708,9 +2632,7 @@
       <c r="AQ39"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
-        <v>39</v>
-      </c>
+      <c r="A40" s="9"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -2755,9 +2677,7 @@
       <c r="AQ40"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>40</v>
-      </c>
+      <c r="A41" s="9"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -2802,9 +2722,7 @@
       <c r="AQ41"/>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>41</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -2849,9 +2767,7 @@
       <c r="AQ42"/>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
-        <v>42</v>
-      </c>
+      <c r="A43" s="9"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -2896,9 +2812,7 @@
       <c r="AQ43"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
-        <v>43</v>
-      </c>
+      <c r="A44" s="9"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -2943,9 +2857,7 @@
       <c r="AQ44"/>
     </row>
     <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
-        <v>44</v>
-      </c>
+      <c r="A45" s="9"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -2990,9 +2902,7 @@
       <c r="AQ45"/>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
-        <v>45</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -3037,9 +2947,7 @@
       <c r="AQ46"/>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>46</v>
-      </c>
+      <c r="A47" s="9"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -3084,9 +2992,7 @@
       <c r="AQ47"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
+      <c r="A48" s="9"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -3131,9 +3037,7 @@
       <c r="AQ48"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
-        <v>48</v>
-      </c>
+      <c r="A49" s="9"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -3178,9 +3082,7 @@
       <c r="AQ49"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>49</v>
-      </c>
+      <c r="A50" s="9"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -3225,9 +3127,7 @@
       <c r="AQ50"/>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>50</v>
-      </c>
+      <c r="A51" s="9"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -3272,9 +3172,7 @@
       <c r="AQ51"/>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
-        <v>51</v>
-      </c>
+      <c r="A52" s="9"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -3319,9 +3217,7 @@
       <c r="AQ52"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>52</v>
-      </c>
+      <c r="A53" s="9"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -3366,9 +3262,7 @@
       <c r="AQ53"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>53</v>
-      </c>
+      <c r="A54" s="9"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -3413,9 +3307,7 @@
       <c r="AQ54"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="9">
-        <v>54</v>
-      </c>
+      <c r="A55" s="9"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -3460,9 +3352,7 @@
       <c r="AQ55"/>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
-        <v>55</v>
-      </c>
+      <c r="A56" s="9"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -3507,9 +3397,7 @@
       <c r="AQ56"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
+      <c r="A57" s="9"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -3554,9 +3442,7 @@
       <c r="AQ57"/>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
-        <v>57</v>
-      </c>
+      <c r="A58" s="9"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -3601,9 +3487,7 @@
       <c r="AQ58"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
-        <v>58</v>
-      </c>
+      <c r="A59" s="9"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -3648,9 +3532,7 @@
       <c r="AQ59"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>59</v>
-      </c>
+      <c r="A60" s="9"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -3695,9 +3577,7 @@
       <c r="AQ60"/>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="9">
-        <v>60</v>
-      </c>
+      <c r="A61" s="9"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -3742,9 +3622,7 @@
       <c r="AQ61"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>61</v>
-      </c>
+      <c r="A62" s="9"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -3789,9 +3667,7 @@
       <c r="AQ62"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>62</v>
-      </c>
+      <c r="A63" s="9"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -3836,9 +3712,7 @@
       <c r="AQ63"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
-        <v>63</v>
-      </c>
+      <c r="A64" s="9"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -3883,9 +3757,7 @@
       <c r="AQ64"/>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="9">
-        <v>64</v>
-      </c>
+      <c r="A65" s="9"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -3930,9 +3802,7 @@
       <c r="AQ65"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>65</v>
-      </c>
+      <c r="A66" s="9"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -3977,9 +3847,7 @@
       <c r="AQ66"/>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="9">
-        <v>66</v>
-      </c>
+      <c r="A67" s="9"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -4024,9 +3892,7 @@
       <c r="AQ67"/>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
-        <v>67</v>
-      </c>
+      <c r="A68" s="9"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -4071,9 +3937,7 @@
       <c r="AQ68"/>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="9">
-        <v>68</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -4118,9 +3982,7 @@
       <c r="AQ69"/>
     </row>
     <row r="70" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
-        <v>69</v>
-      </c>
+      <c r="A70" s="9"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -4165,9 +4027,7 @@
       <c r="AQ70"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A71" s="9">
-        <v>70</v>
-      </c>
+      <c r="A71" s="9"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -4212,9 +4072,7 @@
       <c r="AQ71"/>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
-        <v>71</v>
-      </c>
+      <c r="A72" s="9"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -4259,9 +4117,7 @@
       <c r="AQ72"/>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
-        <v>72</v>
-      </c>
+      <c r="A73" s="9"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -4306,9 +4162,7 @@
       <c r="AQ73"/>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>73</v>
-      </c>
+      <c r="A74" s="9"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -4353,9 +4207,7 @@
       <c r="AQ74"/>
     </row>
     <row r="75" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>74</v>
-      </c>
+      <c r="A75" s="9"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -4400,9 +4252,7 @@
       <c r="AQ75"/>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
-        <v>75</v>
-      </c>
+      <c r="A76" s="9"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -4447,9 +4297,7 @@
       <c r="AQ76"/>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="9">
-        <v>76</v>
-      </c>
+      <c r="A77" s="9"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -4494,9 +4342,7 @@
       <c r="AQ77"/>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
-        <v>77</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -4541,9 +4387,7 @@
       <c r="AQ78"/>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="9">
-        <v>78</v>
-      </c>
+      <c r="A79" s="9"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -4588,9 +4432,7 @@
       <c r="AQ79"/>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
-        <v>79</v>
-      </c>
+      <c r="A80" s="9"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -4635,9 +4477,7 @@
       <c r="AQ80"/>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
+      <c r="A81" s="9"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -4682,9 +4522,7 @@
       <c r="AQ81"/>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>81</v>
-      </c>
+      <c r="A82" s="9"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -4729,9 +4567,7 @@
       <c r="AQ82"/>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A83" s="9">
-        <v>82</v>
-      </c>
+      <c r="A83" s="9"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -4776,9 +4612,7 @@
       <c r="AQ83"/>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
-        <v>83</v>
-      </c>
+      <c r="A84" s="9"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -4823,9 +4657,7 @@
       <c r="AQ84"/>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A85" s="9">
-        <v>84</v>
-      </c>
+      <c r="A85" s="9"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -4870,9 +4702,7 @@
       <c r="AQ85"/>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
-        <v>85</v>
-      </c>
+      <c r="A86" s="9"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -4917,9 +4747,7 @@
       <c r="AQ86"/>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="9">
-        <v>86</v>
-      </c>
+      <c r="A87" s="9"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -4964,9 +4792,7 @@
       <c r="AQ87"/>
     </row>
     <row r="88" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
-        <v>87</v>
-      </c>
+      <c r="A88" s="9"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -5011,9 +4837,7 @@
       <c r="AQ88"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A89" s="9">
-        <v>88</v>
-      </c>
+      <c r="A89" s="9"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -5058,9 +4882,7 @@
       <c r="AQ89"/>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
-        <v>89</v>
-      </c>
+      <c r="A90" s="9"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -5105,9 +4927,7 @@
       <c r="AQ90"/>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A91" s="9">
-        <v>90</v>
-      </c>
+      <c r="A91" s="9"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -5152,9 +4972,7 @@
       <c r="AQ91"/>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
-        <v>91</v>
-      </c>
+      <c r="A92" s="9"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -5199,9 +5017,7 @@
       <c r="AQ92"/>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A93" s="9">
-        <v>92</v>
-      </c>
+      <c r="A93" s="9"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -5246,9 +5062,7 @@
       <c r="AQ93"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
-        <v>93</v>
-      </c>
+      <c r="A94" s="9"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -5293,9 +5107,7 @@
       <c r="AQ94"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A95" s="9">
-        <v>94</v>
-      </c>
+      <c r="A95" s="9"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -5340,9 +5152,7 @@
       <c r="AQ95"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
-        <v>95</v>
-      </c>
+      <c r="A96" s="9"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -5387,9 +5197,7 @@
       <c r="AQ96"/>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" s="9">
-        <v>96</v>
-      </c>
+      <c r="A97" s="9"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -5434,9 +5242,7 @@
       <c r="AQ97"/>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" s="9">
-        <v>97</v>
-      </c>
+      <c r="A98" s="9"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -5481,9 +5287,7 @@
       <c r="AQ98"/>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" s="9">
-        <v>98</v>
-      </c>
+      <c r="A99" s="9"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -5528,9 +5332,7 @@
       <c r="AQ99"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
-        <v>99</v>
-      </c>
+      <c r="A100" s="9"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -5575,9 +5377,7 @@
       <c r="AQ100"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" s="9">
-        <v>100</v>
-      </c>
+      <c r="A101" s="9"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -5622,9 +5422,7 @@
       <c r="AQ101"/>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" s="9">
-        <v>101</v>
-      </c>
+      <c r="A102" s="9"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -5669,9 +5467,7 @@
       <c r="AQ102"/>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
-        <v>102</v>
-      </c>
+      <c r="A103" s="9"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -5716,9 +5512,7 @@
       <c r="AQ103"/>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="9">
-        <v>103</v>
-      </c>
+      <c r="A104" s="9"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
@@ -5763,9 +5557,7 @@
       <c r="AQ104"/>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
-        <v>104</v>
-      </c>
+      <c r="A105" s="9"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -5810,9 +5602,7 @@
       <c r="AQ105"/>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" s="9">
-        <v>105</v>
-      </c>
+      <c r="A106" s="9"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -5857,9 +5647,7 @@
       <c r="AQ106"/>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
-        <v>106</v>
-      </c>
+      <c r="A107" s="9"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -5904,9 +5692,7 @@
       <c r="AQ107"/>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A108" s="9">
-        <v>107</v>
-      </c>
+      <c r="A108" s="9"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -5951,9 +5737,7 @@
       <c r="AQ108"/>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
-        <v>108</v>
-      </c>
+      <c r="A109" s="9"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
@@ -5998,9 +5782,7 @@
       <c r="AQ109"/>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A110" s="9">
-        <v>109</v>
-      </c>
+      <c r="A110" s="9"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -6045,9 +5827,7 @@
       <c r="AQ110"/>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
+      <c r="A111" s="9"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -6092,9 +5872,7 @@
       <c r="AQ111"/>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A112" s="9">
-        <v>111</v>
-      </c>
+      <c r="A112" s="9"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -6139,9 +5917,7 @@
       <c r="AQ112"/>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
-        <v>112</v>
-      </c>
+      <c r="A113" s="9"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -6186,9 +5962,7 @@
       <c r="AQ113"/>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A114" s="9">
-        <v>113</v>
-      </c>
+      <c r="A114" s="9"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -6233,9 +6007,7 @@
       <c r="AQ114"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>114</v>
-      </c>
+      <c r="A115" s="9"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -6280,9 +6052,7 @@
       <c r="AQ115"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>115</v>
-      </c>
+      <c r="A116" s="9"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
@@ -6327,9 +6097,7 @@
       <c r="AQ116"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
-        <v>116</v>
-      </c>
+      <c r="A117" s="9"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -6374,9 +6142,7 @@
       <c r="AQ117"/>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A118" s="9">
-        <v>117</v>
-      </c>
+      <c r="A118" s="9"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -6421,9 +6187,7 @@
       <c r="AQ118"/>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
-        <v>118</v>
-      </c>
+      <c r="A119" s="9"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -6468,9 +6232,7 @@
       <c r="AQ119"/>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A120" s="9">
-        <v>119</v>
-      </c>
+      <c r="A120" s="9"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -6515,9 +6277,7 @@
       <c r="AQ120"/>
     </row>
     <row r="121" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
-        <v>120</v>
-      </c>
+      <c r="A121" s="9"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -6562,9 +6322,7 @@
       <c r="AQ121"/>
     </row>
     <row r="122" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A122" s="9">
-        <v>121</v>
-      </c>
+      <c r="A122" s="9"/>
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -6609,9 +6367,7 @@
       <c r="AQ122"/>
     </row>
     <row r="123" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
-        <v>122</v>
-      </c>
+      <c r="A123" s="9"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -6656,9 +6412,7 @@
       <c r="AQ123"/>
     </row>
     <row r="124" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A124" s="9">
-        <v>123</v>
-      </c>
+      <c r="A124" s="9"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -6703,9 +6457,7 @@
       <c r="AQ124"/>
     </row>
     <row r="125" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A125" s="9">
-        <v>124</v>
-      </c>
+      <c r="A125" s="9"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -6750,9 +6502,7 @@
       <c r="AQ125"/>
     </row>
     <row r="126" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A126" s="9">
-        <v>125</v>
-      </c>
+      <c r="A126" s="9"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -6797,9 +6547,7 @@
       <c r="AQ126"/>
     </row>
     <row r="127" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
-        <v>126</v>
-      </c>
+      <c r="A127" s="9"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -6844,9 +6592,7 @@
       <c r="AQ127"/>
     </row>
     <row r="128" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A128" s="9">
-        <v>127</v>
-      </c>
+      <c r="A128" s="9"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -6891,9 +6637,7 @@
       <c r="AQ128"/>
     </row>
     <row r="129" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
-        <v>128</v>
-      </c>
+      <c r="A129" s="9"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -6938,9 +6682,7 @@
       <c r="AQ129"/>
     </row>
     <row r="130" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A130" s="9">
-        <v>129</v>
-      </c>
+      <c r="A130" s="9"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
@@ -6985,9 +6727,7 @@
       <c r="AQ130"/>
     </row>
     <row r="131" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A131" s="9">
-        <v>130</v>
-      </c>
+      <c r="A131" s="9"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
@@ -7032,9 +6772,7 @@
       <c r="AQ131"/>
     </row>
     <row r="132" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A132" s="9">
-        <v>131</v>
-      </c>
+      <c r="A132" s="9"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
@@ -7079,9 +6817,7 @@
       <c r="AQ132"/>
     </row>
     <row r="133" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>132</v>
-      </c>
+      <c r="A133" s="9"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
@@ -7126,9 +6862,7 @@
       <c r="AQ133"/>
     </row>
     <row r="134" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A134" s="9">
-        <v>133</v>
-      </c>
+      <c r="A134" s="9"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
@@ -7173,9 +6907,7 @@
       <c r="AQ134"/>
     </row>
     <row r="135" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
-        <v>134</v>
-      </c>
+      <c r="A135" s="9"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
@@ -7220,9 +6952,7 @@
       <c r="AQ135"/>
     </row>
     <row r="136" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>135</v>
-      </c>
+      <c r="A136" s="9"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
@@ -7267,9 +6997,7 @@
       <c r="AQ136"/>
     </row>
     <row r="137" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>136</v>
-      </c>
+      <c r="A137" s="9"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
@@ -7314,9 +7042,7 @@
       <c r="AQ137"/>
     </row>
     <row r="138" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
-        <v>137</v>
-      </c>
+      <c r="A138" s="9"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
@@ -7361,9 +7087,7 @@
       <c r="AQ138"/>
     </row>
     <row r="139" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
-        <v>138</v>
-      </c>
+      <c r="A139" s="9"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
@@ -7408,9 +7132,7 @@
       <c r="AQ139"/>
     </row>
     <row r="140" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A140" s="9">
-        <v>139</v>
-      </c>
+      <c r="A140" s="9"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
@@ -7455,9 +7177,7 @@
       <c r="AQ140"/>
     </row>
     <row r="141" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
-        <v>140</v>
-      </c>
+      <c r="A141" s="9"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
@@ -7502,9 +7222,7 @@
       <c r="AQ141"/>
     </row>
     <row r="142" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A142" s="9">
-        <v>141</v>
-      </c>
+      <c r="A142" s="9"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
@@ -7549,9 +7267,7 @@
       <c r="AQ142"/>
     </row>
     <row r="143" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A143" s="9">
-        <v>142</v>
-      </c>
+      <c r="A143" s="9"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
@@ -7596,9 +7312,7 @@
       <c r="AQ143"/>
     </row>
     <row r="144" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A144" s="9">
-        <v>143</v>
-      </c>
+      <c r="A144" s="9"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -7643,9 +7357,7 @@
       <c r="AQ144"/>
     </row>
     <row r="145" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
-        <v>144</v>
-      </c>
+      <c r="A145" s="9"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
@@ -7690,9 +7402,7 @@
       <c r="AQ145"/>
     </row>
     <row r="146" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
-        <v>145</v>
-      </c>
+      <c r="A146" s="9"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
@@ -7737,9 +7447,7 @@
       <c r="AQ146"/>
     </row>
     <row r="147" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
-        <v>146</v>
-      </c>
+      <c r="A147" s="9"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
@@ -7784,9 +7492,7 @@
       <c r="AQ147"/>
     </row>
     <row r="148" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A148" s="9">
-        <v>147</v>
-      </c>
+      <c r="A148" s="9"/>
       <c r="B148"/>
       <c r="C148"/>
       <c r="D148"/>
@@ -7831,9 +7537,7 @@
       <c r="AQ148"/>
     </row>
     <row r="149" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
-        <v>148</v>
-      </c>
+      <c r="A149" s="9"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
@@ -7878,9 +7582,7 @@
       <c r="AQ149"/>
     </row>
     <row r="150" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A150" s="9">
-        <v>149</v>
-      </c>
+      <c r="A150" s="9"/>
       <c r="B150"/>
       <c r="C150"/>
       <c r="D150"/>
@@ -7925,9 +7627,7 @@
       <c r="AQ150"/>
     </row>
     <row r="151" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
-        <v>150</v>
-      </c>
+      <c r="A151" s="9"/>
       <c r="B151"/>
       <c r="C151"/>
       <c r="D151"/>
@@ -7972,9 +7672,7 @@
       <c r="AQ151"/>
     </row>
     <row r="152" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A152" s="9">
-        <v>151</v>
-      </c>
+      <c r="A152" s="9"/>
       <c r="B152"/>
       <c r="C152"/>
       <c r="D152"/>
@@ -8019,9 +7717,7 @@
       <c r="AQ152"/>
     </row>
     <row r="153" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
-        <v>152</v>
-      </c>
+      <c r="A153" s="9"/>
       <c r="B153"/>
       <c r="C153"/>
       <c r="D153"/>
@@ -8066,9 +7762,7 @@
       <c r="AQ153"/>
     </row>
     <row r="154" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A154" s="9">
-        <v>153</v>
-      </c>
+      <c r="A154" s="9"/>
       <c r="B154"/>
       <c r="C154"/>
       <c r="D154"/>
@@ -8113,9 +7807,7 @@
       <c r="AQ154"/>
     </row>
     <row r="155" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
-        <v>154</v>
-      </c>
+      <c r="A155" s="9"/>
       <c r="B155"/>
       <c r="C155"/>
       <c r="D155"/>
@@ -8160,9 +7852,7 @@
       <c r="AQ155"/>
     </row>
     <row r="156" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>155</v>
-      </c>
+      <c r="A156" s="9"/>
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
@@ -8207,9 +7897,7 @@
       <c r="AQ156"/>
     </row>
     <row r="157" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>156</v>
-      </c>
+      <c r="A157" s="9"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
@@ -8254,9 +7942,7 @@
       <c r="AQ157"/>
     </row>
     <row r="158" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A158" s="9">
-        <v>157</v>
-      </c>
+      <c r="A158" s="9"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
@@ -8301,9 +7987,7 @@
       <c r="AQ158"/>
     </row>
     <row r="159" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
-        <v>158</v>
-      </c>
+      <c r="A159" s="9"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
@@ -8348,9 +8032,7 @@
       <c r="AQ159"/>
     </row>
     <row r="160" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A160" s="9">
-        <v>159</v>
-      </c>
+      <c r="A160" s="9"/>
       <c r="B160"/>
       <c r="C160"/>
       <c r="D160"/>
@@ -8395,9 +8077,7 @@
       <c r="AQ160"/>
     </row>
     <row r="161" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
-        <v>160</v>
-      </c>
+      <c r="A161" s="9"/>
       <c r="B161"/>
       <c r="C161"/>
       <c r="D161"/>
@@ -8442,9 +8122,7 @@
       <c r="AQ161"/>
     </row>
     <row r="162" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A162" s="9">
-        <v>161</v>
-      </c>
+      <c r="A162" s="9"/>
       <c r="B162"/>
       <c r="C162"/>
       <c r="D162"/>
@@ -8489,9 +8167,7 @@
       <c r="AQ162"/>
     </row>
     <row r="163" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
-        <v>162</v>
-      </c>
+      <c r="A163" s="9"/>
       <c r="B163"/>
       <c r="C163"/>
       <c r="D163"/>
@@ -8536,9 +8212,7 @@
       <c r="AQ163"/>
     </row>
     <row r="164" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A164" s="9">
-        <v>163</v>
-      </c>
+      <c r="A164" s="9"/>
       <c r="B164"/>
       <c r="C164"/>
       <c r="D164"/>
@@ -8583,9 +8257,7 @@
       <c r="AQ164"/>
     </row>
     <row r="165" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
-        <v>164</v>
-      </c>
+      <c r="A165" s="9"/>
       <c r="B165"/>
       <c r="C165"/>
       <c r="D165"/>
@@ -8630,9 +8302,7 @@
       <c r="AQ165"/>
     </row>
     <row r="166" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
-        <v>165</v>
-      </c>
+      <c r="A166" s="9"/>
       <c r="B166"/>
       <c r="C166"/>
       <c r="D166"/>
@@ -8677,9 +8347,7 @@
       <c r="AQ166"/>
     </row>
     <row r="167" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
-        <v>166</v>
-      </c>
+      <c r="A167" s="9"/>
       <c r="B167"/>
       <c r="C167"/>
       <c r="D167"/>
@@ -8724,9 +8392,7 @@
       <c r="AQ167"/>
     </row>
     <row r="168" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A168" s="9">
-        <v>167</v>
-      </c>
+      <c r="A168" s="9"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
@@ -8771,9 +8437,7 @@
       <c r="AQ168"/>
     </row>
     <row r="169" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A169" s="9">
-        <v>168</v>
-      </c>
+      <c r="A169" s="9"/>
       <c r="B169"/>
       <c r="C169"/>
       <c r="D169"/>
@@ -8818,9 +8482,7 @@
       <c r="AQ169"/>
     </row>
     <row r="170" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
-        <v>169</v>
-      </c>
+      <c r="A170" s="9"/>
       <c r="B170"/>
       <c r="C170"/>
       <c r="D170"/>
@@ -8865,9 +8527,7 @@
       <c r="AQ170"/>
     </row>
     <row r="171" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A171" s="9">
-        <v>170</v>
-      </c>
+      <c r="A171" s="9"/>
       <c r="B171"/>
       <c r="C171"/>
       <c r="D171"/>
@@ -8912,9 +8572,7 @@
       <c r="AQ171"/>
     </row>
     <row r="172" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
-        <v>171</v>
-      </c>
+      <c r="A172" s="9"/>
       <c r="B172"/>
       <c r="C172"/>
       <c r="D172"/>
@@ -8959,9 +8617,7 @@
       <c r="AQ172"/>
     </row>
     <row r="173" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A173" s="9">
-        <v>172</v>
-      </c>
+      <c r="A173" s="9"/>
       <c r="B173"/>
       <c r="C173"/>
       <c r="D173"/>
@@ -9006,9 +8662,7 @@
       <c r="AQ173"/>
     </row>
     <row r="174" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
-        <v>173</v>
-      </c>
+      <c r="A174" s="9"/>
       <c r="B174"/>
       <c r="C174"/>
       <c r="D174"/>
@@ -9053,9 +8707,7 @@
       <c r="AQ174"/>
     </row>
     <row r="175" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
-        <v>174</v>
-      </c>
+      <c r="A175" s="9"/>
       <c r="B175"/>
       <c r="C175"/>
       <c r="D175"/>
@@ -9100,9 +8752,7 @@
       <c r="AQ175"/>
     </row>
     <row r="176" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
-        <v>175</v>
-      </c>
+      <c r="A176" s="9"/>
       <c r="B176"/>
       <c r="C176"/>
       <c r="D176"/>
@@ -9147,9 +8797,7 @@
       <c r="AQ176"/>
     </row>
     <row r="177" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A177" s="9">
-        <v>176</v>
-      </c>
+      <c r="A177" s="9"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
@@ -9194,9 +8842,7 @@
       <c r="AQ177"/>
     </row>
     <row r="178" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
-        <v>177</v>
-      </c>
+      <c r="A178" s="9"/>
       <c r="B178"/>
       <c r="C178"/>
       <c r="D178"/>
@@ -9241,9 +8887,7 @@
       <c r="AQ178"/>
     </row>
     <row r="179" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
-        <v>178</v>
-      </c>
+      <c r="A179" s="9"/>
       <c r="B179"/>
       <c r="C179"/>
       <c r="D179"/>
@@ -9288,9 +8932,7 @@
       <c r="AQ179"/>
     </row>
     <row r="180" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
-        <v>179</v>
-      </c>
+      <c r="A180" s="9"/>
       <c r="B180"/>
       <c r="C180"/>
       <c r="D180"/>
@@ -9335,9 +8977,7 @@
       <c r="AQ180"/>
     </row>
     <row r="181" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A181" s="9">
-        <v>180</v>
-      </c>
+      <c r="A181" s="9"/>
       <c r="B181"/>
       <c r="C181"/>
       <c r="D181"/>
@@ -9382,9 +9022,7 @@
       <c r="AQ181"/>
     </row>
     <row r="182" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
-        <v>181</v>
-      </c>
+      <c r="A182" s="9"/>
       <c r="B182"/>
       <c r="C182"/>
       <c r="D182"/>
@@ -9429,9 +9067,7 @@
       <c r="AQ182"/>
     </row>
     <row r="183" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A183" s="9">
-        <v>182</v>
-      </c>
+      <c r="A183" s="9"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
@@ -9476,9 +9112,7 @@
       <c r="AQ183"/>
     </row>
     <row r="184" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
-        <v>183</v>
-      </c>
+      <c r="A184" s="9"/>
       <c r="B184"/>
       <c r="C184"/>
       <c r="D184"/>
@@ -9523,9 +9157,7 @@
       <c r="AQ184"/>
     </row>
     <row r="185" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A185" s="9">
-        <v>184</v>
-      </c>
+      <c r="A185" s="9"/>
       <c r="B185"/>
       <c r="C185"/>
       <c r="D185"/>
@@ -9570,9 +9202,7 @@
       <c r="AQ185"/>
     </row>
     <row r="186" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
-        <v>185</v>
-      </c>
+      <c r="A186" s="9"/>
       <c r="B186"/>
       <c r="C186"/>
       <c r="D186"/>
@@ -9617,9 +9247,7 @@
       <c r="AQ186"/>
     </row>
     <row r="187" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
-        <v>186</v>
-      </c>
+      <c r="A187" s="9"/>
       <c r="B187"/>
       <c r="C187"/>
       <c r="D187"/>
@@ -9664,9 +9292,7 @@
       <c r="AQ187"/>
     </row>
     <row r="188" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
-        <v>187</v>
-      </c>
+      <c r="A188" s="9"/>
       <c r="B188"/>
       <c r="C188"/>
       <c r="D188"/>
@@ -9711,9 +9337,7 @@
       <c r="AQ188"/>
     </row>
     <row r="189" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A189" s="9">
-        <v>188</v>
-      </c>
+      <c r="A189" s="9"/>
       <c r="B189"/>
       <c r="C189"/>
       <c r="D189"/>
@@ -9758,9 +9382,7 @@
       <c r="AQ189"/>
     </row>
     <row r="190" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
-        <v>189</v>
-      </c>
+      <c r="A190" s="9"/>
       <c r="B190"/>
       <c r="C190"/>
       <c r="D190"/>
@@ -9805,9 +9427,7 @@
       <c r="AQ190"/>
     </row>
     <row r="191" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
-        <v>190</v>
-      </c>
+      <c r="A191" s="9"/>
       <c r="B191"/>
       <c r="C191"/>
       <c r="D191"/>
@@ -9852,9 +9472,7 @@
       <c r="AQ191"/>
     </row>
     <row r="192" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
-        <v>191</v>
-      </c>
+      <c r="A192" s="9"/>
       <c r="B192"/>
       <c r="C192"/>
       <c r="D192"/>
@@ -9899,9 +9517,7 @@
       <c r="AQ192"/>
     </row>
     <row r="193" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A193" s="9">
-        <v>192</v>
-      </c>
+      <c r="A193" s="9"/>
       <c r="B193"/>
       <c r="C193"/>
       <c r="D193"/>
@@ -9946,9 +9562,7 @@
       <c r="AQ193"/>
     </row>
     <row r="194" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A194" s="9">
-        <v>193</v>
-      </c>
+      <c r="A194" s="9"/>
       <c r="B194"/>
       <c r="C194"/>
       <c r="D194"/>
@@ -9993,9 +9607,7 @@
       <c r="AQ194"/>
     </row>
     <row r="195" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
-        <v>194</v>
-      </c>
+      <c r="A195" s="9"/>
       <c r="B195"/>
       <c r="C195"/>
       <c r="D195"/>
@@ -10040,9 +9652,7 @@
       <c r="AQ195"/>
     </row>
     <row r="196" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A196" s="9">
-        <v>195</v>
-      </c>
+      <c r="A196" s="9"/>
       <c r="B196"/>
       <c r="C196"/>
       <c r="D196"/>
@@ -10087,9 +9697,7 @@
       <c r="AQ196"/>
     </row>
     <row r="197" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
-        <v>196</v>
-      </c>
+      <c r="A197" s="9"/>
       <c r="B197"/>
       <c r="C197"/>
       <c r="D197"/>
@@ -10134,9 +9742,7 @@
       <c r="AQ197"/>
     </row>
     <row r="198" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A198" s="9">
-        <v>197</v>
-      </c>
+      <c r="A198" s="9"/>
       <c r="B198"/>
       <c r="C198"/>
       <c r="D198"/>
@@ -10181,9 +9787,7 @@
       <c r="AQ198"/>
     </row>
     <row r="199" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
-        <v>198</v>
-      </c>
+      <c r="A199" s="9"/>
       <c r="B199"/>
       <c r="C199"/>
       <c r="D199"/>
@@ -10228,9 +9832,7 @@
       <c r="AQ199"/>
     </row>
     <row r="200" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
-        <v>199</v>
-      </c>
+      <c r="A200" s="9"/>
       <c r="B200"/>
       <c r="C200"/>
       <c r="D200"/>
@@ -10275,9 +9877,7 @@
       <c r="AQ200"/>
     </row>
     <row r="201" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
-        <v>200</v>
-      </c>
+      <c r="A201" s="9"/>
       <c r="B201"/>
       <c r="C201"/>
       <c r="D201"/>
@@ -10322,9 +9922,7 @@
       <c r="AQ201"/>
     </row>
     <row r="202" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A202" s="9">
-        <v>201</v>
-      </c>
+      <c r="A202" s="9"/>
       <c r="B202"/>
       <c r="C202"/>
       <c r="D202"/>
@@ -10369,9 +9967,7 @@
       <c r="AQ202"/>
     </row>
     <row r="203" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
-        <v>202</v>
-      </c>
+      <c r="A203" s="9"/>
       <c r="B203"/>
       <c r="C203"/>
       <c r="D203"/>
@@ -10416,9 +10012,7 @@
       <c r="AQ203"/>
     </row>
     <row r="204" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A204" s="9">
-        <v>203</v>
-      </c>
+      <c r="A204" s="9"/>
       <c r="B204"/>
       <c r="C204"/>
       <c r="D204"/>
@@ -10463,9 +10057,7 @@
       <c r="AQ204"/>
     </row>
     <row r="205" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A205" s="9">
-        <v>204</v>
-      </c>
+      <c r="A205" s="9"/>
       <c r="B205"/>
       <c r="C205"/>
       <c r="D205"/>
@@ -10510,9 +10102,7 @@
       <c r="AQ205"/>
     </row>
     <row r="206" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A206" s="9">
-        <v>205</v>
-      </c>
+      <c r="A206" s="9"/>
       <c r="B206"/>
       <c r="C206"/>
       <c r="D206"/>
@@ -10557,9 +10147,7 @@
       <c r="AQ206"/>
     </row>
     <row r="207" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A207" s="9">
-        <v>206</v>
-      </c>
+      <c r="A207" s="9"/>
       <c r="B207"/>
       <c r="C207"/>
       <c r="D207"/>
@@ -10604,9 +10192,7 @@
       <c r="AQ207"/>
     </row>
     <row r="208" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A208" s="9">
-        <v>207</v>
-      </c>
+      <c r="A208" s="9"/>
       <c r="B208"/>
       <c r="C208"/>
       <c r="D208"/>
@@ -10651,9 +10237,7 @@
       <c r="AQ208"/>
     </row>
     <row r="209" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
-        <v>208</v>
-      </c>
+      <c r="A209" s="9"/>
       <c r="B209"/>
       <c r="C209"/>
       <c r="D209"/>
@@ -10698,9 +10282,7 @@
       <c r="AQ209"/>
     </row>
     <row r="210" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A210" s="9">
-        <v>209</v>
-      </c>
+      <c r="A210" s="9"/>
       <c r="B210"/>
       <c r="C210"/>
       <c r="D210"/>
@@ -10745,9 +10327,7 @@
       <c r="AQ210"/>
     </row>
     <row r="211" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A211" s="9">
-        <v>210</v>
-      </c>
+      <c r="A211" s="9"/>
       <c r="B211"/>
       <c r="C211"/>
       <c r="D211"/>
@@ -10792,9 +10372,7 @@
       <c r="AQ211"/>
     </row>
     <row r="212" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A212" s="9">
-        <v>211</v>
-      </c>
+      <c r="A212" s="9"/>
       <c r="B212"/>
       <c r="C212"/>
       <c r="D212"/>
@@ -10839,9 +10417,7 @@
       <c r="AQ212"/>
     </row>
     <row r="213" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
-        <v>212</v>
-      </c>
+      <c r="A213" s="9"/>
       <c r="B213"/>
       <c r="C213"/>
       <c r="D213"/>
@@ -10886,9 +10462,7 @@
       <c r="AQ213"/>
     </row>
     <row r="214" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A214" s="9">
-        <v>213</v>
-      </c>
+      <c r="A214" s="9"/>
       <c r="B214"/>
       <c r="C214"/>
       <c r="D214"/>
@@ -10933,9 +10507,7 @@
       <c r="AQ214"/>
     </row>
     <row r="215" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A215" s="9">
-        <v>214</v>
-      </c>
+      <c r="A215" s="9"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
@@ -10980,9 +10552,7 @@
       <c r="AQ215"/>
     </row>
     <row r="216" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A216" s="9">
-        <v>215</v>
-      </c>
+      <c r="A216" s="9"/>
       <c r="B216"/>
       <c r="C216"/>
       <c r="D216"/>
@@ -11027,9 +10597,7 @@
       <c r="AQ216"/>
     </row>
     <row r="217" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A217" s="9">
-        <v>216</v>
-      </c>
+      <c r="A217" s="9"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
@@ -11074,9 +10642,7 @@
       <c r="AQ217"/>
     </row>
     <row r="218" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A218" s="9">
-        <v>217</v>
-      </c>
+      <c r="A218" s="9"/>
       <c r="B218"/>
       <c r="C218"/>
       <c r="D218"/>
@@ -11121,9 +10687,7 @@
       <c r="AQ218"/>
     </row>
     <row r="219" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A219" s="9">
-        <v>218</v>
-      </c>
+      <c r="A219" s="9"/>
       <c r="B219"/>
       <c r="C219"/>
       <c r="D219"/>
@@ -11168,9 +10732,7 @@
       <c r="AQ219"/>
     </row>
     <row r="220" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A220" s="9">
-        <v>219</v>
-      </c>
+      <c r="A220" s="9"/>
       <c r="B220"/>
       <c r="C220"/>
       <c r="D220"/>
@@ -11215,9 +10777,7 @@
       <c r="AQ220"/>
     </row>
     <row r="221" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A221" s="9">
-        <v>220</v>
-      </c>
+      <c r="A221" s="9"/>
       <c r="B221"/>
       <c r="C221"/>
       <c r="D221"/>
@@ -11262,9 +10822,7 @@
       <c r="AQ221"/>
     </row>
     <row r="222" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A222" s="9">
-        <v>221</v>
-      </c>
+      <c r="A222" s="9"/>
       <c r="B222"/>
       <c r="C222"/>
       <c r="D222"/>
@@ -11309,9 +10867,7 @@
       <c r="AQ222"/>
     </row>
     <row r="223" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A223" s="9">
-        <v>222</v>
-      </c>
+      <c r="A223" s="9"/>
       <c r="B223"/>
       <c r="C223"/>
       <c r="D223"/>
@@ -11356,9 +10912,7 @@
       <c r="AQ223"/>
     </row>
     <row r="224" spans="1:43" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
-      </c>
+      <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
       <c r="D224"/>
@@ -11403,9 +10957,7 @@
       <c r="AQ224"/>
     </row>
     <row r="225" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A225" s="9">
-        <v>224</v>
-      </c>
+      <c r="A225" s="9"/>
       <c r="B225"/>
       <c r="C225"/>
       <c r="D225"/>
@@ -11450,9 +11002,7 @@
       <c r="AQ225"/>
     </row>
     <row r="226" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A226" s="9">
-        <v>225</v>
-      </c>
+      <c r="A226" s="9"/>
       <c r="B226"/>
       <c r="C226"/>
       <c r="D226"/>
@@ -11497,9 +11047,7 @@
       <c r="AQ226"/>
     </row>
     <row r="227" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
-        <v>226</v>
-      </c>
+      <c r="A227" s="9"/>
       <c r="B227"/>
       <c r="C227"/>
       <c r="D227"/>
@@ -11544,9 +11092,7 @@
       <c r="AQ227"/>
     </row>
     <row r="228" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A228" s="9">
-        <v>227</v>
-      </c>
+      <c r="A228" s="9"/>
       <c r="B228"/>
       <c r="C228"/>
       <c r="D228"/>
@@ -11591,9 +11137,7 @@
       <c r="AQ228"/>
     </row>
     <row r="229" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A229" s="9">
-        <v>228</v>
-      </c>
+      <c r="A229" s="9"/>
       <c r="B229"/>
       <c r="C229"/>
       <c r="D229"/>
@@ -11638,9 +11182,7 @@
       <c r="AQ229"/>
     </row>
     <row r="230" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A230" s="9">
-        <v>229</v>
-      </c>
+      <c r="A230" s="9"/>
       <c r="B230"/>
       <c r="C230"/>
       <c r="D230"/>
@@ -11685,9 +11227,7 @@
       <c r="AQ230"/>
     </row>
     <row r="231" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A231" s="9">
-        <v>230</v>
-      </c>
+      <c r="A231" s="9"/>
       <c r="B231"/>
       <c r="C231"/>
       <c r="D231"/>
@@ -11732,9 +11272,7 @@
       <c r="AQ231"/>
     </row>
     <row r="232" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A232" s="9">
-        <v>231</v>
-      </c>
+      <c r="A232" s="9"/>
       <c r="B232"/>
       <c r="C232"/>
       <c r="D232"/>
@@ -11779,9 +11317,7 @@
       <c r="AQ232"/>
     </row>
     <row r="233" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A233" s="9">
-        <v>232</v>
-      </c>
+      <c r="A233" s="9"/>
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
@@ -11826,9 +11362,7 @@
       <c r="AQ233"/>
     </row>
     <row r="234" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A234" s="9">
-        <v>233</v>
-      </c>
+      <c r="A234" s="9"/>
       <c r="B234"/>
       <c r="C234"/>
       <c r="D234"/>
@@ -11873,9 +11407,7 @@
       <c r="AQ234"/>
     </row>
     <row r="235" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A235" s="9">
-        <v>234</v>
-      </c>
+      <c r="A235" s="9"/>
       <c r="B235"/>
       <c r="C235"/>
       <c r="D235"/>
@@ -11920,9 +11452,7 @@
       <c r="AQ235"/>
     </row>
     <row r="236" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A236" s="9">
-        <v>235</v>
-      </c>
+      <c r="A236" s="9"/>
       <c r="B236"/>
       <c r="C236"/>
       <c r="D236"/>
@@ -11967,9 +11497,7 @@
       <c r="AQ236"/>
     </row>
     <row r="237" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A237" s="9">
-        <v>236</v>
-      </c>
+      <c r="A237" s="9"/>
       <c r="B237"/>
       <c r="C237"/>
       <c r="D237"/>
@@ -12014,9 +11542,7 @@
       <c r="AQ237"/>
     </row>
     <row r="238" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A238" s="9">
-        <v>237</v>
-      </c>
+      <c r="A238" s="9"/>
       <c r="B238"/>
       <c r="C238"/>
       <c r="D238"/>
@@ -12061,9 +11587,7 @@
       <c r="AQ238"/>
     </row>
     <row r="239" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A239" s="9">
-        <v>238</v>
-      </c>
+      <c r="A239" s="9"/>
       <c r="B239"/>
       <c r="C239"/>
       <c r="D239"/>
@@ -12108,9 +11632,7 @@
       <c r="AQ239"/>
     </row>
     <row r="240" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A240" s="9">
-        <v>239</v>
-      </c>
+      <c r="A240" s="9"/>
       <c r="B240"/>
       <c r="C240"/>
       <c r="D240"/>
@@ -12155,9 +11677,7 @@
       <c r="AQ240"/>
     </row>
     <row r="241" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
-        <v>240</v>
-      </c>
+      <c r="A241" s="9"/>
       <c r="B241"/>
       <c r="C241"/>
       <c r="D241"/>
@@ -12202,9 +11722,7 @@
       <c r="AQ241"/>
     </row>
     <row r="242" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A242" s="9">
-        <v>241</v>
-      </c>
+      <c r="A242" s="9"/>
       <c r="B242"/>
       <c r="C242"/>
       <c r="D242"/>
@@ -12249,9 +11767,7 @@
       <c r="AQ242"/>
     </row>
     <row r="243" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A243" s="9">
-        <v>242</v>
-      </c>
+      <c r="A243" s="9"/>
       <c r="B243"/>
       <c r="C243"/>
       <c r="D243"/>
@@ -12296,9 +11812,7 @@
       <c r="AQ243"/>
     </row>
     <row r="244" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A244" s="9">
-        <v>243</v>
-      </c>
+      <c r="A244" s="9"/>
       <c r="B244"/>
       <c r="C244"/>
       <c r="D244"/>
@@ -12343,9 +11857,7 @@
       <c r="AQ244"/>
     </row>
     <row r="245" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A245" s="9">
-        <v>244</v>
-      </c>
+      <c r="A245" s="9"/>
       <c r="B245"/>
       <c r="C245"/>
       <c r="D245"/>
@@ -12390,9 +11902,7 @@
       <c r="AQ245"/>
     </row>
     <row r="246" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A246" s="9">
-        <v>245</v>
-      </c>
+      <c r="A246" s="9"/>
       <c r="B246"/>
       <c r="C246"/>
       <c r="D246"/>
@@ -12437,9 +11947,7 @@
       <c r="AQ246"/>
     </row>
     <row r="247" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
-        <v>246</v>
-      </c>
+      <c r="A247" s="9"/>
       <c r="B247"/>
       <c r="C247"/>
       <c r="D247"/>
@@ -12484,9 +11992,7 @@
       <c r="AQ247"/>
     </row>
     <row r="248" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A248" s="9">
-        <v>247</v>
-      </c>
+      <c r="A248" s="9"/>
       <c r="B248"/>
       <c r="C248"/>
       <c r="D248"/>
@@ -12531,9 +12037,7 @@
       <c r="AQ248"/>
     </row>
     <row r="249" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
-        <v>248</v>
-      </c>
+      <c r="A249" s="9"/>
       <c r="B249"/>
       <c r="C249"/>
       <c r="D249"/>
@@ -12578,9 +12082,7 @@
       <c r="AQ249"/>
     </row>
     <row r="250" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A250" s="9">
-        <v>249</v>
-      </c>
+      <c r="A250" s="9"/>
       <c r="B250"/>
       <c r="C250"/>
       <c r="D250"/>
@@ -12625,9 +12127,7 @@
       <c r="AQ250"/>
     </row>
     <row r="251" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
-        <v>250</v>
-      </c>
+      <c r="A251" s="9"/>
       <c r="B251"/>
       <c r="C251"/>
       <c r="D251"/>
@@ -12672,9 +12172,7 @@
       <c r="AQ251"/>
     </row>
     <row r="252" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A252" s="9">
-        <v>251</v>
-      </c>
+      <c r="A252" s="9"/>
       <c r="B252"/>
       <c r="C252"/>
       <c r="D252"/>
@@ -12719,9 +12217,7 @@
       <c r="AQ252"/>
     </row>
     <row r="253" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A253" s="9">
-        <v>252</v>
-      </c>
+      <c r="A253" s="9"/>
       <c r="B253"/>
       <c r="C253"/>
       <c r="D253"/>
@@ -12766,9 +12262,7 @@
       <c r="AQ253"/>
     </row>
     <row r="254" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A254" s="9">
-        <v>253</v>
-      </c>
+      <c r="A254" s="9"/>
       <c r="B254"/>
       <c r="C254"/>
       <c r="D254"/>
@@ -12813,9 +12307,7 @@
       <c r="AQ254"/>
     </row>
     <row r="255" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A255" s="9">
-        <v>254</v>
-      </c>
+      <c r="A255" s="9"/>
       <c r="B255"/>
       <c r="C255"/>
       <c r="D255"/>
@@ -12860,9 +12352,7 @@
       <c r="AQ255"/>
     </row>
     <row r="256" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A256" s="9">
-        <v>255</v>
-      </c>
+      <c r="A256" s="9"/>
       <c r="B256"/>
       <c r="C256"/>
       <c r="D256"/>
@@ -12907,9 +12397,7 @@
       <c r="AQ256"/>
     </row>
     <row r="257" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
-        <v>256</v>
-      </c>
+      <c r="A257" s="9"/>
       <c r="B257"/>
       <c r="C257"/>
       <c r="D257"/>
@@ -12954,9 +12442,7 @@
       <c r="AQ257"/>
     </row>
     <row r="258" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A258" s="9">
-        <v>257</v>
-      </c>
+      <c r="A258" s="9"/>
       <c r="B258"/>
       <c r="C258"/>
       <c r="D258"/>
@@ -13001,9 +12487,7 @@
       <c r="AQ258"/>
     </row>
     <row r="259" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A259" s="9">
-        <v>258</v>
-      </c>
+      <c r="A259" s="9"/>
       <c r="B259"/>
       <c r="C259"/>
       <c r="D259"/>
@@ -13048,9 +12532,7 @@
       <c r="AQ259"/>
     </row>
     <row r="260" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A260" s="9">
-        <v>259</v>
-      </c>
+      <c r="A260" s="9"/>
       <c r="B260"/>
       <c r="C260"/>
       <c r="D260"/>
@@ -13095,9 +12577,7 @@
       <c r="AQ260"/>
     </row>
     <row r="261" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
-        <v>260</v>
-      </c>
+      <c r="A261" s="9"/>
       <c r="B261"/>
       <c r="C261"/>
       <c r="D261"/>
@@ -13142,9 +12622,7 @@
       <c r="AQ261"/>
     </row>
     <row r="262" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A262" s="9">
-        <v>261</v>
-      </c>
+      <c r="A262" s="9"/>
       <c r="B262"/>
       <c r="C262"/>
       <c r="D262"/>
@@ -13189,9 +12667,7 @@
       <c r="AQ262"/>
     </row>
     <row r="263" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
-        <v>262</v>
-      </c>
+      <c r="A263" s="9"/>
       <c r="B263"/>
       <c r="C263"/>
       <c r="D263"/>
@@ -13236,9 +12712,7 @@
       <c r="AQ263"/>
     </row>
     <row r="264" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A264" s="9">
-        <v>263</v>
-      </c>
+      <c r="A264" s="9"/>
       <c r="B264"/>
       <c r="C264"/>
       <c r="D264"/>
@@ -13283,9 +12757,7 @@
       <c r="AQ264"/>
     </row>
     <row r="265" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
-        <v>264</v>
-      </c>
+      <c r="A265" s="9"/>
       <c r="B265"/>
       <c r="C265"/>
       <c r="D265"/>
@@ -13330,9 +12802,7 @@
       <c r="AQ265"/>
     </row>
     <row r="266" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A266" s="9">
-        <v>265</v>
-      </c>
+      <c r="A266" s="9"/>
       <c r="B266"/>
       <c r="C266"/>
       <c r="D266"/>
@@ -13377,9 +12847,7 @@
       <c r="AQ266"/>
     </row>
     <row r="267" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
-        <v>266</v>
-      </c>
+      <c r="A267" s="9"/>
       <c r="B267"/>
       <c r="C267"/>
       <c r="D267"/>
@@ -13424,9 +12892,7 @@
       <c r="AQ267"/>
     </row>
     <row r="268" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A268" s="9">
-        <v>267</v>
-      </c>
+      <c r="A268" s="9"/>
       <c r="B268"/>
       <c r="C268"/>
       <c r="D268"/>
@@ -13471,9 +12937,7 @@
       <c r="AQ268"/>
     </row>
     <row r="269" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A269" s="9">
-        <v>268</v>
-      </c>
+      <c r="A269" s="9"/>
       <c r="B269"/>
       <c r="C269"/>
       <c r="D269"/>
@@ -13518,9 +12982,7 @@
       <c r="AQ269"/>
     </row>
     <row r="270" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A270" s="9">
-        <v>269</v>
-      </c>
+      <c r="A270" s="9"/>
       <c r="B270"/>
       <c r="C270"/>
       <c r="D270"/>
@@ -13565,9 +13027,7 @@
       <c r="AQ270"/>
     </row>
     <row r="271" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A271" s="9">
-        <v>270</v>
-      </c>
+      <c r="A271" s="9"/>
       <c r="B271"/>
       <c r="C271"/>
       <c r="D271"/>
@@ -13612,9 +13072,7 @@
       <c r="AQ271"/>
     </row>
     <row r="272" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A272" s="9">
-        <v>271</v>
-      </c>
+      <c r="A272" s="9"/>
       <c r="B272"/>
       <c r="C272"/>
       <c r="D272"/>
@@ -13659,9 +13117,7 @@
       <c r="AQ272"/>
     </row>
     <row r="273" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A273" s="9">
-        <v>272</v>
-      </c>
+      <c r="A273" s="9"/>
       <c r="B273"/>
       <c r="C273"/>
       <c r="D273"/>
@@ -13706,9 +13162,7 @@
       <c r="AQ273"/>
     </row>
     <row r="274" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A274" s="9">
-        <v>273</v>
-      </c>
+      <c r="A274" s="9"/>
       <c r="B274"/>
       <c r="C274"/>
       <c r="D274"/>
@@ -13753,9 +13207,7 @@
       <c r="AQ274"/>
     </row>
     <row r="275" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A275" s="9">
-        <v>274</v>
-      </c>
+      <c r="A275" s="9"/>
       <c r="B275"/>
       <c r="C275"/>
       <c r="D275"/>
@@ -13800,9 +13252,7 @@
       <c r="AQ275"/>
     </row>
     <row r="276" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A276" s="9">
-        <v>275</v>
-      </c>
+      <c r="A276" s="9"/>
       <c r="B276"/>
       <c r="C276"/>
       <c r="D276"/>
@@ -13847,9 +13297,7 @@
       <c r="AQ276"/>
     </row>
     <row r="277" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A277" s="9">
-        <v>276</v>
-      </c>
+      <c r="A277" s="9"/>
       <c r="B277"/>
       <c r="C277"/>
       <c r="D277"/>
@@ -13894,9 +13342,7 @@
       <c r="AQ277"/>
     </row>
     <row r="278" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A278" s="9">
-        <v>277</v>
-      </c>
+      <c r="A278" s="9"/>
       <c r="B278"/>
       <c r="C278"/>
       <c r="D278"/>
@@ -13941,9 +13387,7 @@
       <c r="AQ278"/>
     </row>
     <row r="279" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A279" s="9">
-        <v>278</v>
-      </c>
+      <c r="A279" s="9"/>
       <c r="B279"/>
       <c r="C279"/>
       <c r="D279"/>
@@ -13988,9 +13432,7 @@
       <c r="AQ279"/>
     </row>
     <row r="280" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A280" s="9">
-        <v>279</v>
-      </c>
+      <c r="A280" s="9"/>
       <c r="B280"/>
       <c r="C280"/>
       <c r="D280"/>
@@ -14035,9 +13477,7 @@
       <c r="AQ280"/>
     </row>
     <row r="281" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A281" s="9">
-        <v>280</v>
-      </c>
+      <c r="A281" s="9"/>
       <c r="B281"/>
       <c r="C281"/>
       <c r="D281"/>
@@ -14082,9 +13522,7 @@
       <c r="AQ281"/>
     </row>
     <row r="282" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A282" s="9">
-        <v>281</v>
-      </c>
+      <c r="A282" s="9"/>
       <c r="B282"/>
       <c r="C282"/>
       <c r="D282"/>
@@ -14129,9 +13567,7 @@
       <c r="AQ282"/>
     </row>
     <row r="283" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A283" s="9">
-        <v>282</v>
-      </c>
+      <c r="A283" s="9"/>
       <c r="B283"/>
       <c r="C283"/>
       <c r="D283"/>
@@ -14176,9 +13612,7 @@
       <c r="AQ283"/>
     </row>
     <row r="284" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A284" s="9">
-        <v>283</v>
-      </c>
+      <c r="A284" s="9"/>
       <c r="B284"/>
       <c r="C284"/>
       <c r="D284"/>
@@ -14223,9 +13657,7 @@
       <c r="AQ284"/>
     </row>
     <row r="285" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A285" s="9">
-        <v>284</v>
-      </c>
+      <c r="A285" s="9"/>
       <c r="B285"/>
       <c r="C285"/>
       <c r="D285"/>
